--- a/events.xlsx
+++ b/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://marriottonline-my.sharepoint.com/personal/ixie257_marriott_com/Documents/LyceumX/Joyan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10481D49DA792C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{709395C9-11E8-4913-98CE-C3F294F9719E}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10481D49DA792C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3991D68F-D012-41FC-8011-9CD823B0ED58}"/>
   <bookViews>
-    <workbookView xWindow="24825" yWindow="8010" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="6855" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +48,6 @@
     <t>The Day We Run Away</t>
   </si>
   <si>
-    <t>and Love Steps In Our Lives</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/6765587/pexels-photo-6765587.jpeg</t>
   </si>
   <si>
@@ -64,6 +61,132 @@
   </si>
   <si>
     <t>https://dimg04.c-ctrip.com/images/200o0k000000bgyc21B3B.jpg</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>https://img3.chinadaily.com.cn/images/202001/16/5e200a12a3107bb6f52d6ccc.jpeg</t>
+  </si>
+  <si>
+    <t>Where wild geese alight</t>
+  </si>
+  <si>
+    <t>where we set love free.</t>
+  </si>
+  <si>
+    <t>and love steps in.</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Celebrate Ian's birthday</t>
+  </si>
+  <si>
+    <t>Thank you, my love.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQzfy8i9QcMY5uuO9bHf9tH4KkHKHY_84sILg&amp;s</t>
+  </si>
+  <si>
+    <t>Back to Chaoyang</t>
+  </si>
+  <si>
+    <t>Back to you…</t>
+  </si>
+  <si>
+    <t>https://img-rs.huanqiucdn.cn/dp/api/files/image/8c78f027d093008d4c43e543edf4e695c5.jpg</t>
+  </si>
+  <si>
+    <t>Beijing, Beijing</t>
+  </si>
+  <si>
+    <t>Story of Spring</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSCw7bu4ZHoRlRXYd1aDCUGwGwpJ_aeTVxBNw&amp;s</t>
+  </si>
+  <si>
+    <t>Ian's Birthday</t>
+  </si>
+  <si>
+    <t>So lucky to have you in my life</t>
+  </si>
+  <si>
+    <t>https://pic.chaopx.com/chao_origin_pic/20/24/04/46d5a03ffeb6ab08564a821d7b091f00.jpg!/fw/572/quality/90/unsharp/true/compress/true</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Business Traveller</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSnRr3CAxPU8A0_zLWKVutj8bL84vtKQeK6ug&amp;s</t>
+  </si>
+  <si>
+    <t>Sheraton Macau</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Countyard SG</t>
+  </si>
+  <si>
+    <t>1st week of full-day together</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZMIeDpN0c62BPdhp6WpL5Y1M6X0K2L5fPGw&amp;s</t>
+  </si>
+  <si>
+    <t>Qufu</t>
+  </si>
+  <si>
+    <t>JW Marriott</t>
+  </si>
+  <si>
+    <t>When ginkgo leaves fall, gilding the earth in gold.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTkRwdbcyO4hb3a3XR0HbESmBKzYgY8JOqXfg&amp;s</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>Couryard Mudu</t>
+  </si>
+  <si>
+    <t>A midnight sip, the gentle clink of glasses.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSFXUY-kS9rHt5n47ALE12QrffLj16alYG_cQ&amp;s</t>
+  </si>
+  <si>
+    <t>Zhengzhou</t>
+  </si>
+  <si>
+    <t>Le Meridien</t>
+  </si>
+  <si>
+    <t>An intimate cocktail soirée for two.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQLHcP5srEp6b77Eg6tfqdRKrWey2p96Q4GJA&amp;s</t>
+  </si>
+  <si>
+    <t>Qingdao</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQf1PWti3QNn9RSRVFPLNpkfhCoJ0LPyILBkA&amp;s</t>
+  </si>
+  <si>
+    <t>Sheraton Huangdao</t>
+  </si>
+  <si>
+    <t>the breeze tastes of salt….</t>
   </si>
 </sst>
 </file>
@@ -136,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,15 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,44 +589,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>42256</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43755</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>42851</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>42527</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>42480</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>42303</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>42167</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>42149</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>42111</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>42140</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>42140</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{DF811918-5725-414B-A7B6-72BB8A4C3141}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://images.pexels.com/photos/6765587/pexels-photo-6765587.jpeg" xr:uid="{7AB4549A-8AE2-4A40-A02B-551FCDA0542F}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{DF811918-5725-414B-A7B6-72BB8A4C3141}"/>
+    <hyperlink ref="E14" r:id="rId2" display="https://images.pexels.com/photos/6765587/pexels-photo-6765587.jpeg" xr:uid="{7AB4549A-8AE2-4A40-A02B-551FCDA0542F}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{AE1D382D-401F-44DB-AF14-8396F25A50EA}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{1C78E07B-54EF-46A7-9B91-93F6257C7FA1}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{62A440B5-2697-44BC-AD79-825E92C7202B}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{F384F666-0246-4121-A5DC-79DCDD9B7756}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{C3218378-24F0-4ACD-991E-1C410940ABE2}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{8F825247-D55A-4BA8-B8D8-AE6FD385A0CE}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{D42F7439-6007-40B8-A1B9-2952C074BC40}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{19179581-6158-48EB-857C-F5F40D4C41BD}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{F7FD560E-B561-4B7F-8D5E-C4984176D4C7}"/>
+    <hyperlink ref="E3" r:id="rId12" xr:uid="{D0336A29-9AAF-4419-A858-8A139E398DA9}"/>
+    <hyperlink ref="E2" r:id="rId13" xr:uid="{6004E854-CBE4-441C-A298-BB75EF1E9E5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
